--- a/data/scheduling_DNN/predict/0.9/result8.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result8.xlsx
@@ -570,10 +570,10 @@
         <v>0.9773671627044678</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.3990269005298615</v>
       </c>
       <c r="W2" t="n">
-        <v>3.381855094630737e-06</v>
+        <v>0.3344774842262268</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.240476131439209</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.8651610612869263</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3477641940116882</v>
+        <v>0.1408614069223404</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8900089263916016</v>
       </c>
       <c r="V4" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4066966474056244</v>
       </c>
       <c r="W4" t="n">
-        <v>0.268561065196991</v>
+        <v>0.2335907518863678</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8752000331878662</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.8750932812690735</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1368878334760666</v>
+        <v>1.139597216592847e-08</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8846521377563477</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.3990380465984344</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1770960986614227</v>
+        <v>0.2358210384845734</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9314508438110352</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.505554735660553</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1645791232585907</v>
+        <v>0.1813874989748001</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9155538082122803</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5317118167877197</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1992354393005371</v>
+        <v>0.1473346799612045</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8729958534240723</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.4006000459194183</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2510765492916107</v>
+        <v>0.2231577932834625</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8927099704742432</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.4003004729747772</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1499723047018051</v>
+        <v>0.2424671202898026</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9222180843353271</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8825909495353699</v>
       </c>
       <c r="W11" t="n">
-        <v>0.007763997185975313</v>
+        <v>0.001570309861563146</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8882060050964355</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.4001323878765106</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1322812736034393</v>
+        <v>0.2382158488035202</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8742609024047852</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.5228572487831116</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2779655158519745</v>
+        <v>0.1234845295548439</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.887537956237793</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8733007311820984</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05417636409401894</v>
+        <v>0.0002026985748670995</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9415690898895264</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.8808719515800476</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1229967325925827</v>
+        <v>0.003684142604470253</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8846621513366699</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.8745759129524231</v>
       </c>
       <c r="W16" t="n">
-        <v>0.007088740821927786</v>
+        <v>0.000101732206530869</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8740899562835693</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.5240885615348816</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04873070865869522</v>
+        <v>0.122500978410244</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8853771686553955</v>
       </c>
       <c r="V18" t="n">
-        <v>0.708076536655426</v>
+        <v>0.3990207016468048</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0314355157315731</v>
+        <v>0.2365426123142242</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8685319423675537</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.5253461599349976</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2680664360523224</v>
+        <v>0.117776483297348</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8828628063201904</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.8698415160179138</v>
       </c>
       <c r="W20" t="n">
-        <v>0.008596374653279781</v>
+        <v>0.0001695539976935834</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8951590061187744</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.4040172398090363</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2281457483768463</v>
+        <v>0.241220235824585</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.553447961807251</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.8862318992614746</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03288735449314117</v>
+        <v>0.1107451468706131</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5688309669494629</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.8681902885437012</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04707912355661392</v>
+        <v>0.08961600065231323</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5294530391693115</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.5159338712692261</v>
       </c>
       <c r="W24" t="n">
-        <v>2.151617081835866e-05</v>
+        <v>0.0001827679079724476</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5369918346405029</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.8863255977630615</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02927013859152794</v>
+        <v>0.1220340803265572</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5259189605712891</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.4049808382987976</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2026443183422089</v>
+        <v>0.01462602987885475</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5257670879364014</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5155166983604431</v>
       </c>
       <c r="W27" t="n">
-        <v>1.917821464303415e-06</v>
+        <v>0.0001050704886438325</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5811989307403564</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.8798925280570984</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04114595055580139</v>
+        <v>0.08921786397695541</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5304939746856689</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5320500135421753</v>
       </c>
       <c r="W29" t="n">
-        <v>0.07479646056890488</v>
+        <v>2.421257022433565e-06</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5450189113616943</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.3990214765071869</v>
       </c>
       <c r="W30" t="n">
-        <v>0.00159367558080703</v>
+        <v>0.02131525054574013</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5198709964752197</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.5257318615913391</v>
       </c>
       <c r="W31" t="n">
-        <v>0.07871124893426895</v>
+        <v>3.434974132687785e-05</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5328779220581055</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.8870602250099182</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02611646428704262</v>
+        <v>0.1254450976848602</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5219478607177734</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.868572473526001</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01730880886316299</v>
+        <v>0.1201486214995384</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5233089923858643</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.4008686244487762</v>
       </c>
       <c r="W34" t="n">
-        <v>0.003464584238827229</v>
+        <v>0.01499164383858442</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5239319801330566</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8645861148834229</v>
       </c>
       <c r="W35" t="n">
-        <v>0.005007367115467787</v>
+        <v>0.1160452365875244</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5233619213104248</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.3997591733932495</v>
       </c>
       <c r="W36" t="n">
-        <v>0.09381256252527237</v>
+        <v>0.01527763903141022</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5221738815307617</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5150749087333679</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02937724813818932</v>
+        <v>5.039541429141536e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5205831527709961</v>
       </c>
       <c r="V38" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.5286988615989685</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0955415740609169</v>
+        <v>6.586473318748176e-05</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.544050931930542</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.8733603954315186</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0296192541718483</v>
+        <v>0.1084447205066681</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5257511138916016</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8762450218200684</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0002205868368037045</v>
+        <v>0.1228459775447845</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5331590175628662</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.8827474117279053</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03058452531695366</v>
+        <v>0.1222120448946953</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4140160083770752</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.5062301158905029</v>
       </c>
       <c r="W42" t="n">
-        <v>0.004110448993742466</v>
+        <v>0.008503441698849201</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4199161529541016</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.871978759765625</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01099958457052708</v>
+        <v>0.2043606042861938</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3919289112091064</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8726416230201721</v>
       </c>
       <c r="W44" t="n">
-        <v>0.009679551236331463</v>
+        <v>0.2310847043991089</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3965120315551758</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5245210528373718</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01174763683229685</v>
+        <v>0.01638630963861942</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3915038108825684</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.4001142978668213</v>
       </c>
       <c r="W46" t="n">
-        <v>0.09469134360551834</v>
+        <v>7.414048741338775e-05</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4031481742858887</v>
       </c>
       <c r="V47" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.5662684440612793</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1857935637235641</v>
+        <v>0.02660822309553623</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4073660373687744</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.3990046679973602</v>
       </c>
       <c r="W48" t="n">
-        <v>0.03067797422409058</v>
+        <v>6.99125012033619e-05</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3943130970001221</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5282692909240723</v>
       </c>
       <c r="W49" t="n">
-        <v>0.004830825608223677</v>
+        <v>0.01794426143169403</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.393402099609375</v>
       </c>
       <c r="V50" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.8694517612457275</v>
       </c>
       <c r="W50" t="n">
-        <v>0.09621263295412064</v>
+        <v>0.2266232818365097</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3987131118774414</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.5230405330657959</v>
       </c>
       <c r="W51" t="n">
-        <v>0.003937425557523966</v>
+        <v>0.01545730791985989</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3933789730072021</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.4005684554576874</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0176472831517458</v>
+        <v>5.168865754967555e-05</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3950450420379639</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4000014364719391</v>
       </c>
       <c r="W53" t="n">
-        <v>0.1677727103233337</v>
+        <v>2.456584661558736e-05</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3921051025390625</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.4006122648715973</v>
       </c>
       <c r="W54" t="n">
-        <v>0.09433398395776749</v>
+        <v>7.237181125674397e-05</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.39357590675354</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5198492407798767</v>
       </c>
       <c r="W55" t="n">
-        <v>0.09342695027589798</v>
+        <v>0.015944954007864</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3950738906860352</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.8764454126358032</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01682581752538681</v>
+        <v>0.2317185401916504</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3959259986877441</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.8741424083709717</v>
       </c>
       <c r="W57" t="n">
-        <v>0.06565466523170471</v>
+        <v>0.2286909371614456</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.396885871887207</v>
       </c>
       <c r="V58" t="n">
-        <v>0.503772497177124</v>
+        <v>0.3992258012294769</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01142475102096796</v>
+        <v>5.475269517773995e-06</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3960418701171875</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.8684943914413452</v>
       </c>
       <c r="W59" t="n">
-        <v>0.088004469871521</v>
+        <v>0.2232113778591156</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3957200050354004</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.8929198384284973</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01196901965886354</v>
+        <v>0.2472076714038849</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3950538635253906</v>
       </c>
       <c r="V61" t="n">
-        <v>0.490907609462738</v>
+        <v>0.5249605178833008</v>
       </c>
       <c r="W61" t="n">
-        <v>0.009187940508127213</v>
+        <v>0.01687573827803135</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9542648792266846</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.8652961850166321</v>
       </c>
       <c r="W62" t="n">
-        <v>0.138133630156517</v>
+        <v>0.007915428839623928</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>1.059302091598511</v>
       </c>
       <c r="V63" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.5216273069381714</v>
       </c>
       <c r="W63" t="n">
-        <v>0.006981694139540195</v>
+        <v>0.2890941798686981</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8796000480651855</v>
       </c>
       <c r="V64" t="n">
-        <v>0.802345335483551</v>
+        <v>0.4005720317363739</v>
       </c>
       <c r="W64" t="n">
-        <v>0.005968290846794844</v>
+        <v>0.2294678390026093</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8888089656829834</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.8718553781509399</v>
       </c>
       <c r="W65" t="n">
-        <v>0.05522957444190979</v>
+        <v>0.0002874241326935589</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9310557842254639</v>
       </c>
       <c r="V66" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8869847655296326</v>
       </c>
       <c r="W66" t="n">
-        <v>0.01704542525112629</v>
+        <v>0.00194225471932441</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8817968368530273</v>
       </c>
       <c r="V67" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.3997528851032257</v>
       </c>
       <c r="W67" t="n">
-        <v>0.008797893300652504</v>
+        <v>0.2323663681745529</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8778469562530518</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.8810331225395203</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1399506032466888</v>
+        <v>1.015165526041528e-05</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9093649387359619</v>
       </c>
       <c r="V69" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.5296265482902527</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0109826372936368</v>
+        <v>0.144201248884201</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.9298770427703857</v>
       </c>
       <c r="V70" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8793972730636597</v>
       </c>
       <c r="W70" t="n">
-        <v>0.01674948632717133</v>
+        <v>0.002548207063227892</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8834660053253174</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.8682248592376709</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2837949395179749</v>
+        <v>0.0002322925283806399</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8786449432373047</v>
       </c>
       <c r="V72" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5340820550918579</v>
       </c>
       <c r="W72" t="n">
-        <v>0.006116029806435108</v>
+        <v>0.1187235862016678</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8870680332183838</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5331305265426636</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1569107621908188</v>
+        <v>0.1252717524766922</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.931300163269043</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.4005619287490845</v>
       </c>
       <c r="W74" t="n">
-        <v>0.126031830906868</v>
+        <v>0.281683087348938</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9262840747833252</v>
       </c>
       <c r="V75" t="n">
-        <v>0.490370512008667</v>
+        <v>0.8655087351799011</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1900206357240677</v>
+        <v>0.003693641861900687</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8763949871063232</v>
       </c>
       <c r="V76" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8681718707084656</v>
       </c>
       <c r="W76" t="n">
-        <v>0.001454436685889959</v>
+        <v>6.76196432323195e-05</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8866560459136963</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.523717999458313</v>
       </c>
       <c r="W77" t="n">
-        <v>0.181077167391777</v>
+        <v>0.1317240297794342</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8746299743652344</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.3991806209087372</v>
       </c>
       <c r="W78" t="n">
-        <v>0.04873631522059441</v>
+        <v>0.2260520905256271</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9043278694152832</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5156779885292053</v>
       </c>
       <c r="W79" t="n">
-        <v>0.171129584312439</v>
+        <v>0.1510487347841263</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8700571060180664</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8695868849754333</v>
       </c>
       <c r="W80" t="n">
-        <v>0.07674752920866013</v>
+        <v>2.211078253822052e-07</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9228999614715576</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.3990170359611511</v>
       </c>
       <c r="W81" t="n">
-        <v>0.07240454852581024</v>
+        <v>0.2744533121585846</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5499980449676514</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.3999988436698914</v>
       </c>
       <c r="W82" t="n">
-        <v>0.002052285009995103</v>
+        <v>0.02249976061284542</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.534013032913208</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.4008458852767944</v>
       </c>
       <c r="W83" t="n">
-        <v>0.002324867527931929</v>
+        <v>0.0177334900945425</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5249030590057373</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.405033141374588</v>
       </c>
       <c r="W84" t="n">
-        <v>1.642241898025532e-08</v>
+        <v>0.01436879672110081</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5221860408782959</v>
       </c>
       <c r="V85" t="n">
-        <v>0.576347291469574</v>
+        <v>0.8902068138122559</v>
       </c>
       <c r="W85" t="n">
-        <v>0.002933440962806344</v>
+        <v>0.1354392915964127</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5217208862304688</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.867780864238739</v>
       </c>
       <c r="W86" t="n">
-        <v>0.02923111617565155</v>
+        <v>0.1197575107216835</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5511269569396973</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.4000158607959747</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001292900065891445</v>
+        <v>0.02283456362783909</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.521420955657959</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.4006381928920746</v>
       </c>
       <c r="W88" t="n">
-        <v>0.02717895992100239</v>
+        <v>0.01458847615867853</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5233149528503418</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.8904551267623901</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02101541124284267</v>
+        <v>0.1347919106483459</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5207588672637939</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.8740463256835938</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01783536002039909</v>
+        <v>0.1248120293021202</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5261561870574951</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.5356041789054871</v>
       </c>
       <c r="W91" t="n">
-        <v>0.03076602332293987</v>
+        <v>8.926454756874591e-05</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5884418487548828</v>
       </c>
       <c r="V92" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5074429512023926</v>
       </c>
       <c r="W92" t="n">
-        <v>0.149924710392952</v>
+        <v>0.006560821551829576</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5336611270904541</v>
       </c>
       <c r="V93" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.5156980752944946</v>
       </c>
       <c r="W93" t="n">
-        <v>0.03047885559499264</v>
+        <v>0.0003226712287869304</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5900330543518066</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.5319740176200867</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01653045788407326</v>
+        <v>0.003370851743966341</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5252888202667236</v>
       </c>
       <c r="V95" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.3991995751857758</v>
       </c>
       <c r="W95" t="n">
-        <v>0.03342664614319801</v>
+        <v>0.01589849777519703</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5210540294647217</v>
       </c>
       <c r="V96" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.4073097705841064</v>
       </c>
       <c r="W96" t="n">
-        <v>0.07908332347869873</v>
+        <v>0.01293775625526905</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5862629413604736</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.4008335769176483</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01498288754373789</v>
+        <v>0.03438404947519302</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5274701118469238</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5256205797195435</v>
       </c>
       <c r="W98" t="n">
-        <v>0.004020138178020716</v>
+        <v>3.420769189688144e-06</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5264620780944824</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.4008290767669678</v>
       </c>
       <c r="W99" t="n">
-        <v>0.001348717953078449</v>
+        <v>0.01578365080058575</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5300171375274658</v>
       </c>
       <c r="V100" t="n">
-        <v>0.802417516708374</v>
+        <v>0.4008632004261017</v>
       </c>
       <c r="W100" t="n">
-        <v>0.07420196384191513</v>
+        <v>0.01668073982000351</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5237579345703125</v>
       </c>
       <c r="V101" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8728254437446594</v>
       </c>
       <c r="W101" t="n">
-        <v>7.811336786289758e-07</v>
+        <v>0.1218481287360191</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4234189987182617</v>
       </c>
       <c r="V102" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5156553983688354</v>
       </c>
       <c r="W102" t="n">
-        <v>0.00259604724124074</v>
+        <v>0.008507553488016129</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.416295051574707</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.5226656198501587</v>
       </c>
       <c r="W103" t="n">
-        <v>0.02766566164791584</v>
+        <v>0.01131469756364822</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4122650623321533</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.400850772857666</v>
       </c>
       <c r="W104" t="n">
-        <v>0.001701608416624367</v>
+        <v>0.0001302860036958009</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4121530055999756</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.5287386178970337</v>
       </c>
       <c r="W105" t="n">
-        <v>0.008640874177217484</v>
+        <v>0.01359220501035452</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3933088779449463</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8602693676948547</v>
       </c>
       <c r="W106" t="n">
-        <v>0.004968789871782064</v>
+        <v>0.2180521041154861</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3947718143463135</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5289823412895203</v>
       </c>
       <c r="W107" t="n">
-        <v>0.06755766272544861</v>
+        <v>0.01801246590912342</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3939440250396729</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.4002863764762878</v>
       </c>
       <c r="W108" t="n">
-        <v>0.001866506645455956</v>
+        <v>4.022542270831764e-05</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3976380825042725</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.3999865651130676</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01611621864140034</v>
+        <v>5.515370503417216e-06</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4162859916687012</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.523923933506012</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0764085054397583</v>
+        <v>0.01158592663705349</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3984611034393311</v>
       </c>
       <c r="V111" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.8740534782409668</v>
       </c>
       <c r="W111" t="n">
-        <v>0.002276306739076972</v>
+        <v>0.2261881083250046</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.411297082901001</v>
       </c>
       <c r="V112" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.4003040790557861</v>
       </c>
       <c r="W112" t="n">
-        <v>0.003534001298248768</v>
+        <v>0.0001208461326314136</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3957080841064453</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.8740105032920837</v>
       </c>
       <c r="W113" t="n">
-        <v>0.000481886527268216</v>
+        <v>0.2287732064723969</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3947300910949707</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.4052261114120483</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0005244680214673281</v>
+        <v>0.0001101664456655271</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4274938106536865</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.5158262848854065</v>
       </c>
       <c r="W115" t="n">
-        <v>0.006022047251462936</v>
+        <v>0.007802626118063927</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3992891311645508</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.8760434985160828</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01582900248467922</v>
+        <v>0.2272947281599045</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3980660438537598</v>
       </c>
       <c r="V117" t="n">
-        <v>0.655465304851532</v>
+        <v>0.8751125931739807</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0662543773651123</v>
+        <v>0.2275734096765518</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4034459590911865</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.3999874293804169</v>
       </c>
       <c r="W118" t="n">
-        <v>0.002776716602966189</v>
+        <v>1.196142784465337e-05</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3973560333251953</v>
       </c>
       <c r="V119" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8751255869865417</v>
       </c>
       <c r="W119" t="n">
-        <v>0.03735627606511116</v>
+        <v>0.2282637506723404</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.406217098236084</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.532850444316864</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0288332886993885</v>
+        <v>0.01603600382804871</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4456748962402344</v>
       </c>
       <c r="V121" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5074462294578552</v>
       </c>
       <c r="W121" t="n">
-        <v>0.06429161876440048</v>
+        <v>0.003815697506070137</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8792660236358643</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.872503936290741</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2793299853801727</v>
+        <v>4.572582474793307e-05</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>1.056241035461426</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.3999914824962616</v>
       </c>
       <c r="W123" t="n">
-        <v>0.3199377954006195</v>
+        <v>0.4306634366512299</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8686840534210205</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.8747321367263794</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2682187855243683</v>
+        <v>3.657931301859207e-05</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.928879976272583</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.3999003171920776</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1245107501745224</v>
+        <v>0.2798194885253906</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8896138668060303</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.4011987447738647</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2893712520599365</v>
+        <v>0.2385493367910385</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.873833179473877</v>
       </c>
       <c r="V127" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.867944598197937</v>
       </c>
       <c r="W127" t="n">
-        <v>0.001270634587854147</v>
+        <v>3.467538772383705e-05</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.87693190574646</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.885783851146698</v>
       </c>
       <c r="W128" t="n">
-        <v>0.07964197546243668</v>
+        <v>7.83569339546375e-05</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9254348278045654</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.3999921083450317</v>
       </c>
       <c r="W129" t="n">
-        <v>0.01505829766392708</v>
+        <v>0.2760900557041168</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9138801097869873</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.8669201135635376</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1139999553561211</v>
+        <v>0.002205241238698363</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8697259426116943</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.5152958035469055</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1333393752574921</v>
+        <v>0.1256207227706909</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8817069530487061</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.8671663403511047</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2858777940273285</v>
+        <v>0.0002114294184138998</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8995211124420166</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.400605320930481</v>
       </c>
       <c r="W133" t="n">
-        <v>0.0614265501499176</v>
+        <v>0.24891696870327</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8759720325469971</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.3990318477153778</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2101579010486603</v>
+        <v>0.2274719327688217</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8880660533905029</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.5152528882026672</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1466628015041351</v>
+        <v>0.13898965716362</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8710269927978516</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.8820978999137878</v>
       </c>
       <c r="W136" t="n">
-        <v>0.001372985891066492</v>
+        <v>0.0001225649903062731</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8742730617523193</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.3990243077278137</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2349461615085602</v>
+        <v>0.2258613854646683</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8760001659393311</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.400552898645401</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1654821485280991</v>
+        <v>0.2260501086711884</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8718459606170654</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.5155924558639526</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1452647000551224</v>
+        <v>0.1269165575504303</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8916819095611572</v>
       </c>
       <c r="V140" t="n">
-        <v>0.417652815580368</v>
+        <v>0.8869794011116028</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2247035801410675</v>
+        <v>2.211358514614403e-05</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8812730312347412</v>
       </c>
       <c r="V141" t="n">
-        <v>0.35074183344841</v>
+        <v>0.89805006980896</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2814633250236511</v>
+        <v>0.0002814690233208239</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5322990417480469</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5156069993972778</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01456731092184782</v>
+        <v>0.0002786242694128305</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5272278785705566</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.5333129167556763</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02958176285028458</v>
+        <v>3.702769026858732e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5275599956512451</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8678833842277527</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01606791839003563</v>
+        <v>0.1158200055360794</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5775830745697021</v>
       </c>
       <c r="V145" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.8668752908706665</v>
       </c>
       <c r="W145" t="n">
-        <v>0.1583934724330902</v>
+        <v>0.08368998765945435</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5271220207214355</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.3991947174072266</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0005433952901512384</v>
+        <v>0.01636539585888386</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5509750843048096</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.4012429416179657</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0006363780121318996</v>
+        <v>0.02241971530020237</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5270991325378418</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8696511387825012</v>
       </c>
       <c r="W148" t="n">
-        <v>7.224012279039016e-06</v>
+        <v>0.1173418760299683</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5287609100341797</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.519727349281311</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01234795618802309</v>
+        <v>8.160521974787116e-05</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5244669914245605</v>
       </c>
       <c r="V150" t="n">
-        <v>0.417630136013031</v>
+        <v>0.5295865535736084</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0114141134545207</v>
+        <v>2.620991654112004e-05</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5362560749053955</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.4003265500068665</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01406373549252748</v>
+        <v>0.01847683638334274</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5806510448455811</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8765015006065369</v>
       </c>
       <c r="W152" t="n">
-        <v>0.005315217655152082</v>
+        <v>0.08752749115228653</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5243430137634277</v>
       </c>
       <c r="V153" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.5226008892059326</v>
       </c>
       <c r="W153" t="n">
-        <v>0.203657403588295</v>
+        <v>3.034997916984139e-06</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5245189666748047</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.3990364074707031</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02150587737560272</v>
+        <v>0.01574587263166904</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5279281139373779</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4005816280841827</v>
       </c>
       <c r="W155" t="n">
-        <v>0.03138680383563042</v>
+        <v>0.01621712744235992</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5332980155944824</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.4042868614196777</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01337814796715975</v>
+        <v>0.01664387807250023</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5621249675750732</v>
       </c>
       <c r="V157" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5048406720161438</v>
       </c>
       <c r="W157" t="n">
-        <v>0.1706400364637375</v>
+        <v>0.003281490411609411</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5258479118347168</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.3990210592746735</v>
       </c>
       <c r="W158" t="n">
-        <v>0.00253624003380537</v>
+        <v>0.01608505100011826</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5254659652709961</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.5177034139633179</v>
       </c>
       <c r="W159" t="n">
-        <v>0.00122320419177413</v>
+        <v>6.025720358593389e-05</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5247969627380371</v>
       </c>
       <c r="V160" t="n">
-        <v>0.505433976650238</v>
+        <v>0.3992007076740265</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0003749252355191857</v>
+        <v>0.01577441953122616</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5777518749237061</v>
       </c>
       <c r="V161" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.872707724571228</v>
       </c>
       <c r="W161" t="n">
-        <v>0.04229370132088661</v>
+        <v>0.08699895441532135</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4081718921661377</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8722574710845947</v>
       </c>
       <c r="W162" t="n">
-        <v>0.03210080415010452</v>
+        <v>0.2153754234313965</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3971080780029297</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5288713574409485</v>
       </c>
       <c r="W163" t="n">
-        <v>0.002080607460811734</v>
+        <v>0.01736156269907951</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3998439311981201</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.4043857157230377</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0003162557841278613</v>
+        <v>2.062780731648672e-05</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3991801738739014</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.4000056087970734</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0003402581496629864</v>
+        <v>6.813428399254917e-07</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3935530185699463</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.4003343880176544</v>
       </c>
       <c r="W166" t="n">
-        <v>0.004619249608367682</v>
+        <v>4.598696978064254e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4571108818054199</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.5242717862129211</v>
       </c>
       <c r="W167" t="n">
-        <v>4.07122824981343e-05</v>
+        <v>0.004510587081313133</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4034140110015869</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.5256844758987427</v>
       </c>
       <c r="W168" t="n">
-        <v>0.007569666020572186</v>
+        <v>0.01495006680488586</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.400972843170166</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5250875949859619</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0002727339451666921</v>
+        <v>0.01540447119623423</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3991129398345947</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8764868974685669</v>
       </c>
       <c r="W170" t="n">
-        <v>0.03133977949619293</v>
+        <v>0.227885901927948</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3973889350891113</v>
       </c>
       <c r="V171" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8707374930381775</v>
       </c>
       <c r="W171" t="n">
-        <v>0.06562956422567368</v>
+        <v>0.2240588515996933</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.400068998336792</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.5154069066047668</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003728445153683424</v>
+        <v>0.01330283284187317</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4574480056762695</v>
       </c>
       <c r="V173" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5234712362289429</v>
       </c>
       <c r="W173" t="n">
-        <v>0.007300891447812319</v>
+        <v>0.00435906695201993</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4176139831542969</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8684867024421692</v>
       </c>
       <c r="W174" t="n">
-        <v>0.001928412355482578</v>
+        <v>0.2032862156629562</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4025900363922119</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.5162079930305481</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0005765031091868877</v>
+        <v>0.01290903985500336</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3981661796569824</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.8647031188011169</v>
       </c>
       <c r="W176" t="n">
-        <v>0.03394011035561562</v>
+        <v>0.2176567167043686</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4181060791015625</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.400599867105484</v>
       </c>
       <c r="W177" t="n">
-        <v>0.00529605383053422</v>
+        <v>0.0003064674674533308</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4011161327362061</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.523785412311554</v>
       </c>
       <c r="W178" t="n">
-        <v>0.03069474175572395</v>
+        <v>0.01504775229841471</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4577679634094238</v>
       </c>
       <c r="V179" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.4005826413631439</v>
       </c>
       <c r="W179" t="n">
-        <v>0.267750084400177</v>
+        <v>0.003270161105319858</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3996090888977051</v>
       </c>
       <c r="V180" t="n">
-        <v>0.801636278629303</v>
+        <v>0.4050532579421997</v>
       </c>
       <c r="W180" t="n">
-        <v>0.161625862121582</v>
+        <v>2.963897713925689e-05</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4326081275939941</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.5194451808929443</v>
       </c>
       <c r="W181" t="n">
-        <v>0.003393487306311727</v>
+        <v>0.007540673948824406</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.88199782371521</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.4047494828701019</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1277468651533127</v>
+        <v>0.2277659773826599</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8762569427490234</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.4012134075164795</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1383537352085114</v>
+        <v>0.2256663590669632</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.9785208702087402</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.399018257856369</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2378809005022049</v>
+        <v>0.3358232378959656</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9027178287506104</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.8701341152191162</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1066134199500084</v>
+        <v>0.001061698421835899</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8725118637084961</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8848441243171692</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2441933304071426</v>
+        <v>0.0001520846562925726</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8846879005432129</v>
       </c>
       <c r="V187" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8900443315505981</v>
       </c>
       <c r="W187" t="n">
-        <v>0.006408249493688345</v>
+        <v>2.869135278160684e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9008388519287109</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.885869562625885</v>
       </c>
       <c r="W188" t="n">
-        <v>0.04326382651925087</v>
+        <v>0.0002240796166006476</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8802230358123779</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.3990289270877838</v>
       </c>
       <c r="W189" t="n">
-        <v>0.05143798142671585</v>
+        <v>0.2315477728843689</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.870927095413208</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.5071457624435425</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1444712579250336</v>
+        <v>0.1323368549346924</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8899970054626465</v>
       </c>
       <c r="V191" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.3998969197273254</v>
       </c>
       <c r="W191" t="n">
-        <v>0.007590495981276035</v>
+        <v>0.240198090672493</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8742949962615967</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.4963025748729706</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1684827357530594</v>
+        <v>0.1428782641887665</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8956859111785889</v>
       </c>
       <c r="V193" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.4006462097167969</v>
       </c>
       <c r="W193" t="n">
-        <v>0.008736458607017994</v>
+        <v>0.245064303278923</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8750948905944824</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8728753924369812</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1224469467997551</v>
+        <v>4.926172096020309e-06</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8699159622192383</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.5322899222373962</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1345784068107605</v>
+        <v>0.113991342484951</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8710060119628906</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.4000152349472046</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1680152118206024</v>
+        <v>0.2218323051929474</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9052731990814209</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.5325261354446411</v>
       </c>
       <c r="W197" t="n">
-        <v>0.284498393535614</v>
+        <v>0.1389403790235519</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8797140121459961</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.3990390598773956</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1403958946466446</v>
+        <v>0.2310484051704407</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9318499565124512</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8764650225639343</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1945920288562775</v>
+        <v>0.003067490877583623</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8741679191589355</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8929735422134399</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2447233349084854</v>
+        <v>0.0003536514705047011</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8794248104095459</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8870752453804016</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1726822853088379</v>
+        <v>5.852915637660772e-05</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5270261764526367</v>
       </c>
       <c r="V202" t="n">
-        <v>0.417632520198822</v>
+        <v>0.5455203652381897</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01196697168052197</v>
+        <v>0.0003420350258238614</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5241429805755615</v>
       </c>
       <c r="V203" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.3999857008457184</v>
       </c>
       <c r="W203" t="n">
-        <v>0.2042267620563507</v>
+        <v>0.01541503053158522</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.558154821395874</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.8755260705947876</v>
       </c>
       <c r="W204" t="n">
-        <v>0.009340047836303711</v>
+        <v>0.1007245108485222</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5246210098266602</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8737474083900452</v>
       </c>
       <c r="W205" t="n">
-        <v>0.001145500689744949</v>
+        <v>0.121889241039753</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.528886079788208</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.4012300074100494</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02478266321122646</v>
+        <v>0.01629607193171978</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5302360057830811</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.8759847283363342</v>
       </c>
       <c r="W207" t="n">
-        <v>0.03221265971660614</v>
+        <v>0.1195421814918518</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.525378942489624</v>
       </c>
       <c r="V208" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5243404507637024</v>
       </c>
       <c r="W208" t="n">
-        <v>0.07671526819467545</v>
+        <v>1.078465061254974e-06</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5813870429992676</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.515812873840332</v>
       </c>
       <c r="W209" t="n">
-        <v>0.005948754958808422</v>
+        <v>0.004299971740692854</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5641729831695557</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5178041458129883</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0182387437671423</v>
+        <v>0.002150068990886211</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5521030426025391</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.3990460336208344</v>
       </c>
       <c r="W211" t="n">
-        <v>0.02666847966611385</v>
+        <v>0.02342644892632961</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5312881469726562</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.5369259715080261</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01291311718523502</v>
+        <v>3.178506449330598e-05</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5300800800323486</v>
       </c>
       <c r="V213" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5228586792945862</v>
       </c>
       <c r="W213" t="n">
-        <v>0.09428723901510239</v>
+        <v>5.2148629038129e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.530829906463623</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.4012002646923065</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01489667966961861</v>
+        <v>0.01680384390056133</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5321879386901855</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5153965353965759</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02561797015368938</v>
+        <v>0.0002819512155838311</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.534041166305542</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8893773555755615</v>
       </c>
       <c r="W216" t="n">
-        <v>0.002814414445310831</v>
+        <v>0.1262638121843338</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5247738361358643</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.876666247844696</v>
       </c>
       <c r="W217" t="n">
-        <v>0.001182221341878176</v>
+        <v>0.1238282695412636</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5293049812316895</v>
       </c>
       <c r="V218" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5224066376686096</v>
       </c>
       <c r="W218" t="n">
-        <v>0.03319091722369194</v>
+        <v>4.758714567287825e-05</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5311880111694336</v>
       </c>
       <c r="V219" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.3991973400115967</v>
       </c>
       <c r="W219" t="n">
-        <v>0.1974984109401703</v>
+        <v>0.0174215380102396</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5340619087219238</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.8758836388587952</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01417266763746738</v>
+        <v>0.1168420985341072</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.528548002243042</v>
       </c>
       <c r="V221" t="n">
-        <v>0.652911365032196</v>
+        <v>0.8691033124923706</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01546624582260847</v>
+        <v>0.1159779205918312</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3923921585083008</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.872167706489563</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0006337614031508565</v>
+        <v>0.2301845699548721</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3949811458587646</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5233957171440125</v>
       </c>
       <c r="W223" t="n">
-        <v>0.03828796371817589</v>
+        <v>0.01649030297994614</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4006919860839844</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5276183485984802</v>
       </c>
       <c r="W224" t="n">
-        <v>0.008039212785661221</v>
+        <v>0.01611030101776123</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4019808769226074</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.4002992510795593</v>
       </c>
       <c r="W225" t="n">
-        <v>0.06314766407012939</v>
+        <v>2.827865500876214e-06</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4021320343017578</v>
       </c>
       <c r="V226" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5154784321784973</v>
       </c>
       <c r="W226" t="n">
-        <v>1.12170400825562e-05</v>
+        <v>0.01284740585833788</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4042708873748779</v>
       </c>
       <c r="V227" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.4052877426147461</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1847390383481979</v>
+        <v>1.033994522003923e-06</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4050500392913818</v>
       </c>
       <c r="V228" t="n">
-        <v>0.654336154460907</v>
+        <v>0.3990055024623871</v>
       </c>
       <c r="W228" t="n">
-        <v>0.06214356794953346</v>
+        <v>3.653642488643527e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4002439975738525</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5168709754943848</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0003026634221896529</v>
+        <v>0.01360185164958239</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3996028900146484</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.3990379571914673</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0003249945002608001</v>
+        <v>3.191490804965724e-07</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3992350101470947</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4078958928585052</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01117023825645447</v>
+        <v>7.501088839489967e-05</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4166579246520996</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.5178307890892029</v>
       </c>
       <c r="W232" t="n">
-        <v>0.05603831633925438</v>
+        <v>0.01023594848811626</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4020068645477295</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.8878144025802612</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01078034285455942</v>
+        <v>0.236008957028389</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4026069641113281</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.5249191522598267</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01037387829273939</v>
+        <v>0.01496027130633593</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4021189212799072</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.3998996913433075</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0149921327829361</v>
+        <v>4.924981567455688e-06</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4015340805053711</v>
       </c>
       <c r="V236" t="n">
-        <v>0.490329772233963</v>
+        <v>0.8677851557731628</v>
       </c>
       <c r="W236" t="n">
-        <v>0.007884674705564976</v>
+        <v>0.2173900604248047</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3986978530883789</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8847014904022217</v>
       </c>
       <c r="W237" t="n">
-        <v>0.06472606956958771</v>
+        <v>0.2361995428800583</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.4281001091003418</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.5260583162307739</v>
       </c>
       <c r="W238" t="n">
-        <v>0.02194193191826344</v>
+        <v>0.009595810435712337</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3974308967590332</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.873801052570343</v>
       </c>
       <c r="W239" t="n">
-        <v>0.06550959497690201</v>
+        <v>0.2269285321235657</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3963508605957031</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.876339316368103</v>
       </c>
       <c r="W240" t="n">
-        <v>0.06651508808135986</v>
+        <v>0.2303889244794846</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3972170352935791</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.4039907157421112</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0004134729970246553</v>
+        <v>4.588274532579817e-05</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9786741733551025</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.5021018385887146</v>
       </c>
       <c r="W242" t="n">
-        <v>0.3942763805389404</v>
+        <v>0.2271211892366409</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>1.021574020385742</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8693293333053589</v>
       </c>
       <c r="W243" t="n">
-        <v>0.2467770278453827</v>
+        <v>0.02317844517529011</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8791148662567139</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.8638134002685547</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1727435737848282</v>
+        <v>0.000234134859056212</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8793380260467529</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8635633587837219</v>
       </c>
       <c r="W245" t="n">
-        <v>0.0325036384165287</v>
+        <v>0.0002488401369191706</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8737859725952148</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8734832406044006</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2080802917480469</v>
+        <v>9.164665470962063e-08</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8848879337310791</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.8651353716850281</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1556051522493362</v>
+        <v>0.0003901637101080269</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8820731639862061</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8731569647789001</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2156794220209122</v>
+        <v>7.949861173983663e-05</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8879768848419189</v>
       </c>
       <c r="V249" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.8717634081840515</v>
       </c>
       <c r="W249" t="n">
-        <v>0.00770134199410677</v>
+        <v>0.0002628768270369619</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.877443790435791</v>
       </c>
       <c r="V250" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5156908631324768</v>
       </c>
       <c r="W250" t="n">
-        <v>0.05015380308032036</v>
+        <v>0.1308651864528656</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.907991886138916</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8814243674278259</v>
       </c>
       <c r="W251" t="n">
-        <v>0.06525367498397827</v>
+        <v>0.0007058330229483545</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8805689811706543</v>
       </c>
       <c r="V252" t="n">
-        <v>0.417653352022171</v>
+        <v>0.862367570400238</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2142908871173859</v>
+        <v>0.0003312913468107581</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8831939697265625</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.5157014727592468</v>
       </c>
       <c r="W253" t="n">
-        <v>0.177871361374855</v>
+        <v>0.1350507289171219</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9325211048126221</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.3990229964256287</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1959818303585052</v>
+        <v>0.2846202254295349</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.881397008895874</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.517603874206543</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2524977922439575</v>
+        <v>0.13234543800354</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8795590400695801</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.515691876411438</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1731198132038116</v>
+        <v>0.1323993057012558</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8846070766448975</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5330268144607544</v>
       </c>
       <c r="W257" t="n">
-        <v>0.0534864254295826</v>
+        <v>0.1236086785793304</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.948897123336792</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5233754515647888</v>
       </c>
       <c r="W258" t="n">
-        <v>0.06556382775306702</v>
+        <v>0.1810686886310577</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8792312145233154</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.532822847366333</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1245381757616997</v>
+        <v>0.1199987605214119</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8725149631500244</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.4005967676639557</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2069159150123596</v>
+        <v>0.2227067798376083</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.872791051864624</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.5288873314857483</v>
       </c>
       <c r="W261" t="n">
-        <v>0.207153394818306</v>
+        <v>0.1182697713375092</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5977189540863037</v>
       </c>
       <c r="V262" t="n">
-        <v>0.417663037776947</v>
+        <v>0.4003331661224365</v>
       </c>
       <c r="W262" t="n">
-        <v>0.03242013230919838</v>
+        <v>0.03896114975214005</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5333778858184814</v>
       </c>
       <c r="V263" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.3997558653354645</v>
       </c>
       <c r="W263" t="n">
-        <v>0.07363070547580719</v>
+        <v>0.0178548451513052</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5294368267059326</v>
       </c>
       <c r="V264" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.887290894985199</v>
       </c>
       <c r="W264" t="n">
-        <v>0.09560757875442505</v>
+        <v>0.1280595362186432</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5353319644927979</v>
       </c>
       <c r="V265" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.5118921399116516</v>
       </c>
       <c r="W265" t="n">
-        <v>0.02467707358300686</v>
+        <v>0.00054942537099123</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5312001705169678</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5293698906898499</v>
       </c>
       <c r="W266" t="n">
-        <v>0.001722947810776532</v>
+        <v>3.349924327267217e-06</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5341098308563232</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.4008655250072479</v>
       </c>
       <c r="W267" t="n">
-        <v>0.004940210375934839</v>
+        <v>0.01775404438376427</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5329229831695557</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.4006150364875793</v>
       </c>
       <c r="W268" t="n">
-        <v>0.001823462429456413</v>
+        <v>0.01750539243221283</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5818979740142822</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.517340362071991</v>
       </c>
       <c r="W269" t="n">
-        <v>0.02701186388731003</v>
+        <v>0.004167685285210609</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5292150974273682</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.5277206301689148</v>
       </c>
       <c r="W270" t="n">
-        <v>0.000655681302305311</v>
+        <v>2.233432496723253e-06</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5363330841064453</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.8745068907737732</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0001137638319050893</v>
+        <v>0.1143615245819092</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5394589900970459</v>
       </c>
       <c r="V272" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8674162030220032</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02813036553561687</v>
+        <v>0.1075559332966805</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5351159572601318</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.519324779510498</v>
       </c>
       <c r="W273" t="n">
-        <v>0.005130946636199951</v>
+        <v>0.0002493612992111593</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5960431098937988</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5318898558616638</v>
       </c>
       <c r="W274" t="n">
-        <v>0.00506238266825676</v>
+        <v>0.004115640185773373</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.534276008605957</v>
       </c>
       <c r="V275" t="n">
-        <v>0.490833193063736</v>
+        <v>0.8742493987083435</v>
       </c>
       <c r="W275" t="n">
-        <v>0.001887278165668249</v>
+        <v>0.1155819073319435</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5397419929504395</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.4045993983745575</v>
       </c>
       <c r="W276" t="n">
-        <v>0.03542863950133324</v>
+        <v>0.01826352067291737</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5341260433197021</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.3999049365520477</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0008759920601733029</v>
+        <v>0.01801530458033085</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.540956974029541</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.3997596800327301</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01269755233079195</v>
+        <v>0.01993667520582676</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5329499244689941</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5231592655181885</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01453811768442392</v>
+        <v>9.585700172465295e-05</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5285868644714355</v>
       </c>
       <c r="V280" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.3990339338779449</v>
       </c>
       <c r="W280" t="n">
-        <v>0.02451594360172749</v>
+        <v>0.01678396202623844</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5306620597839355</v>
       </c>
       <c r="V281" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5651150941848755</v>
       </c>
       <c r="W281" t="n">
-        <v>0.09659090638160706</v>
+        <v>0.00118701159954071</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4116649627685547</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.4067756235599518</v>
       </c>
       <c r="W282" t="n">
-        <v>0.001088704448193312</v>
+        <v>2.390563713561278e-05</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4360671043395996</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.4005970060825348</v>
       </c>
       <c r="W283" t="n">
-        <v>0.007279674522578716</v>
+        <v>0.001258127856999636</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4095430374145508</v>
       </c>
       <c r="V284" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.528577983379364</v>
       </c>
       <c r="W284" t="n">
-        <v>0.3203940987586975</v>
+        <v>0.01416931860148907</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4050149917602539</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.857648491859436</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1560635566711426</v>
+        <v>0.2048770785331726</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.419543981552124</v>
       </c>
       <c r="V286" t="n">
-        <v>0.975181519985199</v>
+        <v>0.8732014298439026</v>
       </c>
       <c r="W286" t="n">
-        <v>0.3087330758571625</v>
+        <v>0.2058050781488419</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.440485954284668</v>
       </c>
       <c r="V287" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.3999924063682556</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06922278553247452</v>
+        <v>0.001639727386645973</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4377691745758057</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.398996502161026</v>
       </c>
       <c r="W288" t="n">
-        <v>0.007569313514977694</v>
+        <v>0.00150332017801702</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4747850894927979</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5330747365951538</v>
       </c>
       <c r="W289" t="n">
-        <v>0.03208751976490021</v>
+        <v>0.003397682914510369</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4033920764923096</v>
       </c>
       <c r="V290" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5245130658149719</v>
       </c>
       <c r="W290" t="n">
-        <v>0.1585597991943359</v>
+        <v>0.01467029377818108</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4088571071624756</v>
       </c>
       <c r="V291" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.3990045785903931</v>
       </c>
       <c r="W291" t="n">
-        <v>0.3207356929779053</v>
+        <v>9.707231947686523e-05</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4034028053283691</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.532134473323822</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0001998556108446792</v>
+        <v>0.01657184213399887</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4086599349975586</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.5232861638069153</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1541355550289154</v>
+        <v>0.01313917245715857</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4040219783782959</v>
       </c>
       <c r="V294" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8818448781967163</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1584075093269348</v>
+        <v>0.2283147275447845</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.458176851272583</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.3999854326248169</v>
       </c>
       <c r="W295" t="n">
-        <v>0.004461411852389574</v>
+        <v>0.003386241151019931</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.403702974319458</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.4005782306194305</v>
       </c>
       <c r="W296" t="n">
-        <v>0.08351468294858932</v>
+        <v>9.764023161551449e-06</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4040439128875732</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.3991897106170654</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01482567470520735</v>
+        <v>2.35632796830032e-05</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4299740791320801</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.5279784202575684</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0001513218885520473</v>
+        <v>0.00960485078394413</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4129841327667236</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5661970973014832</v>
       </c>
       <c r="W299" t="n">
-        <v>0.05800466239452362</v>
+        <v>0.02347421273589134</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4036910533905029</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.4008316099643707</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1849292814731598</v>
+        <v>8.17641648609424e-06</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.5016920566558838</v>
       </c>
       <c r="V301" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5266011953353882</v>
       </c>
       <c r="W301" t="n">
-        <v>0.09085848927497864</v>
+        <v>0.0006204652017913759</v>
       </c>
     </row>
     <row r="302" spans="1:23">
